--- a/medicine/Soins infirmiers et profession infirmière/Hôpital_Erasme/Hôpital_Erasme.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/Hôpital_Erasme/Hôpital_Erasme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Erasme</t>
+          <t>Hôpital_Erasme</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’hôpital Erasme - Cliniques universitaires de Bruxelles[1] est l'hôpital de l’université libre de Bruxelles (ULB), situé sur le territoire de la commune bruxelloise d’Anderlecht[2]. Cet hôpital a été ouvert au public en 1977 et est doté d’une capacité de 864 lits[3].
-À partir de 2018, la modernisation de l'hôpital s'organise au Sud-Ouest du campus Erasme, à côté de l'institut Bordet[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’hôpital Erasme - Cliniques universitaires de Bruxelles est l'hôpital de l’université libre de Bruxelles (ULB), situé sur le territoire de la commune bruxelloise d’Anderlecht. Cet hôpital a été ouvert au public en 1977 et est doté d’une capacité de 864 lits.
+À partir de 2018, la modernisation de l'hôpital s'organise au Sud-Ouest du campus Erasme, à côté de l'institut Bordet.
 L'hôpital doit son nom à l'humaniste et théologien Didier Érasme de Rotterdam qui, au XVIe siècle, résida quelque temps près de la collégiale Saints-Pierre-et-Guidon, à Anderlecht.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Erasme</t>
+          <t>Hôpital_Erasme</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,10 +525,12 @@
           <t>L'hôpital en chiffres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hôpital Erasme comptait 3780 membres du personnel en 2017.
-Cette même année, on pouvait y dénombrer 30 000 hospitalisations, 1200 naissances, 400 000 consultations et une moyenne de 100 opérations par jour[5].
+Cette même année, on pouvait y dénombrer 30 000 hospitalisations, 1200 naissances, 400 000 consultations et une moyenne de 100 opérations par jour.
 </t>
         </is>
       </c>
